--- a/data/문화 데이터셋/서울 공공도서관/송파구.xlsx
+++ b/data/문화 데이터셋/서울 공공도서관/송파구.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\★민원 등\정보공개청구\200713\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\서울 공공도서관\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEAF733-E4AE-41FC-B07C-F055E72AA886}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14850" windowHeight="12675" tabRatio="917"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="917" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="송파구립도서관" sheetId="3" r:id="rId1"/>
+    <sheet name="송파구 통합" sheetId="3" r:id="rId1"/>
     <sheet name="122.송파구 거마도서관" sheetId="2" r:id="rId2"/>
     <sheet name="123.송파구 돌마리도서관" sheetId="5" r:id="rId3"/>
     <sheet name="125.송파구 소나무2호도서관" sheetId="6" r:id="rId4"/>
@@ -23,17 +24,27 @@
     <sheet name="131.송파구 송파어린이도서관" sheetId="10" r:id="rId9"/>
     <sheet name="132.송파구 송파어린이도영어서관" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>USER</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,12 +64,12 @@
 </file>
 
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>USER</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
@@ -78,12 +89,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>USER</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -103,12 +114,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>USER</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -128,12 +139,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>USER</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -153,12 +164,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>USER</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -178,12 +189,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>USER</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -203,12 +214,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>USER</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -228,12 +239,12 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>USER</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -253,12 +264,12 @@
 </file>
 
 <file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>USER</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -401,7 +412,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
@@ -752,29 +763,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -785,11 +781,26 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="2"/>
+    <cellStyle name="표준 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -970,7 +981,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -979,7 +990,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1254,134 +1265,134 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17" style="5" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="6" customWidth="1"/>
-    <col min="3" max="15" width="12.625" style="21" customWidth="1"/>
+    <col min="3" max="15" width="12.58203125" style="21" customWidth="1"/>
     <col min="16" max="17" width="15.5" style="21" customWidth="1"/>
-    <col min="18" max="18" width="12.625" style="21" customWidth="1"/>
+    <col min="18" max="18" width="12.58203125" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="48" t="s">
+    <row r="1" spans="1:20" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-    </row>
-    <row r="2" spans="1:20" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+    </row>
+    <row r="2" spans="1:20" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-    </row>
-    <row r="3" spans="1:20" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+    </row>
+    <row r="3" spans="1:20" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="50" t="s">
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="52"/>
-    </row>
-    <row r="4" spans="1:20" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43" t="s">
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="47"/>
+    </row>
+    <row r="4" spans="1:20" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="43" t="s">
+      <c r="G4" s="49"/>
+      <c r="H4" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43" t="s">
+      <c r="I4" s="44"/>
+      <c r="J4" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43" t="s">
+      <c r="K4" s="44"/>
+      <c r="L4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" s="43"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="44"/>
       <c r="P4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="44" t="s">
+      <c r="Q4" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="45"/>
-    </row>
-    <row r="5" spans="1:20" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
+      <c r="R4" s="49"/>
+    </row>
+    <row r="5" spans="1:20" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="16" t="s">
         <v>16</v>
       </c>
@@ -1431,7 +1442,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
         <v>33</v>
       </c>
@@ -1503,8 +1514,8 @@
         <v>184753</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="46" t="s">
+    <row r="7" spans="1:20" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="51" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="30" t="s">
@@ -1575,8 +1586,8 @@
         <v>7451</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
+    <row r="8" spans="1:20" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="52"/>
       <c r="B8" s="32" t="s">
         <v>13</v>
       </c>
@@ -1645,8 +1656,8 @@
         <v>5670</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
+    <row r="9" spans="1:20" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="52"/>
       <c r="B9" s="33" t="s">
         <v>27</v>
       </c>
@@ -1716,8 +1727,8 @@
       </c>
       <c r="T9" s="40"/>
     </row>
-    <row r="10" spans="1:20" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
+    <row r="10" spans="1:20" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="52"/>
       <c r="B10" s="33" t="s">
         <v>12</v>
       </c>
@@ -1786,8 +1797,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
+    <row r="11" spans="1:20" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="52"/>
       <c r="B11" s="33" t="s">
         <v>28</v>
       </c>
@@ -1856,8 +1867,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
+    <row r="12" spans="1:20" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="52"/>
       <c r="B12" s="33" t="s">
         <v>14</v>
       </c>
@@ -1926,8 +1937,8 @@
         <v>469</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
+    <row r="13" spans="1:20" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="52"/>
       <c r="B13" s="33" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2007,8 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="47"/>
+    <row r="14" spans="1:20" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="52"/>
       <c r="B14" s="30" t="s">
         <v>7</v>
       </c>
@@ -2066,8 +2077,8 @@
         <v>177302</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47"/>
+    <row r="15" spans="1:20" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="52"/>
       <c r="B15" s="32" t="s">
         <v>13</v>
       </c>
@@ -2136,8 +2147,8 @@
         <v>7482</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
+    <row r="16" spans="1:20" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="52"/>
       <c r="B16" s="33" t="s">
         <v>27</v>
       </c>
@@ -2206,8 +2217,8 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
+    <row r="17" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="52"/>
       <c r="B17" s="33" t="s">
         <v>12</v>
       </c>
@@ -2276,8 +2287,8 @@
         <v>8335</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="47"/>
+    <row r="18" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="52"/>
       <c r="B18" s="33" t="s">
         <v>28</v>
       </c>
@@ -2346,8 +2357,8 @@
         <v>16715</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="47"/>
+    <row r="19" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="52"/>
       <c r="B19" s="33" t="s">
         <v>14</v>
       </c>
@@ -2416,8 +2427,8 @@
         <v>12864</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47"/>
+    <row r="20" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="52"/>
       <c r="B20" s="33" t="s">
         <v>25</v>
       </c>
@@ -2486,8 +2497,8 @@
         <v>9990</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="47"/>
+    <row r="21" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="52"/>
       <c r="B21" s="33" t="s">
         <v>21</v>
       </c>
@@ -2556,8 +2567,8 @@
         <v>10952</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="47"/>
+    <row r="22" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="52"/>
       <c r="B22" s="33" t="s">
         <v>23</v>
       </c>
@@ -2626,8 +2637,8 @@
         <v>14629</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="47"/>
+    <row r="23" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="52"/>
       <c r="B23" s="33" t="s">
         <v>24</v>
       </c>
@@ -2696,8 +2707,8 @@
         <v>15574</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47"/>
+    <row r="24" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="52"/>
       <c r="B24" s="33" t="s">
         <v>19</v>
       </c>
@@ -2766,8 +2777,8 @@
         <v>12157</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
+    <row r="25" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="52"/>
       <c r="B25" s="33" t="s">
         <v>15</v>
       </c>
@@ -2836,8 +2847,8 @@
         <v>54285</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="47"/>
+    <row r="26" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="52"/>
       <c r="B26" s="33" t="s">
         <v>18</v>
       </c>
@@ -2906,15 +2917,20 @@
         <v>7595</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B27" s="41"/>
-      <c r="J27" s="42" t="s">
+      <c r="J27" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="K27" s="42"/>
+      <c r="K27" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="A7:A26"/>
     <mergeCell ref="B1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A3:A5"/>
@@ -2925,11 +2941,6 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="A7:A26"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.20305556058883667" right="0.14986111223697662" top="0.25777778029441833" bottom="0.16152778267860413" header="3.0833333730697632E-2" footer="0.15333333611488342"/>
@@ -2939,134 +2950,134 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="73" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17" style="5" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="6" customWidth="1"/>
-    <col min="3" max="15" width="12.625" style="21" customWidth="1"/>
+    <col min="3" max="15" width="12.58203125" style="21" customWidth="1"/>
     <col min="16" max="17" width="15.5" style="21" customWidth="1"/>
-    <col min="18" max="18" width="12.625" style="21" customWidth="1"/>
+    <col min="18" max="18" width="12.58203125" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="48" t="s">
+    <row r="1" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-    </row>
-    <row r="2" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+    </row>
+    <row r="2" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-    </row>
-    <row r="3" spans="1:18" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+    </row>
+    <row r="3" spans="1:18" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="50" t="s">
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="52"/>
-    </row>
-    <row r="4" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43" t="s">
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="47"/>
+    </row>
+    <row r="4" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="43" t="s">
+      <c r="G4" s="49"/>
+      <c r="H4" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43" t="s">
+      <c r="I4" s="44"/>
+      <c r="J4" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43" t="s">
+      <c r="K4" s="44"/>
+      <c r="L4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" s="43"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="44"/>
       <c r="P4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="44" t="s">
+      <c r="Q4" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="45"/>
-    </row>
-    <row r="5" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
+      <c r="R4" s="49"/>
+    </row>
+    <row r="5" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="16" t="s">
         <v>16</v>
       </c>
@@ -3116,7 +3127,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
         <v>33</v>
       </c>
@@ -3188,8 +3199,8 @@
         <v>19607</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="46" t="s">
+    <row r="7" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="51" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="18" t="s">
@@ -3260,8 +3271,8 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
+    <row r="8" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="52"/>
       <c r="B8" s="13" t="s">
         <v>13</v>
       </c>
@@ -3296,8 +3307,8 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
+    <row r="9" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="52"/>
       <c r="B9" s="10" t="s">
         <v>27</v>
       </c>
@@ -3332,8 +3343,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
+    <row r="10" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="52"/>
       <c r="B10" s="10" t="s">
         <v>12</v>
       </c>
@@ -3370,8 +3381,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
+    <row r="11" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="52"/>
       <c r="B11" s="10" t="s">
         <v>28</v>
       </c>
@@ -3408,8 +3419,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
+    <row r="12" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="52"/>
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -3442,8 +3453,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
+    <row r="13" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="52"/>
       <c r="B13" s="10" t="s">
         <v>25</v>
       </c>
@@ -3476,8 +3487,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="47"/>
+    <row r="14" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="52"/>
       <c r="B14" s="18" t="s">
         <v>7</v>
       </c>
@@ -3546,8 +3557,8 @@
         <v>17740</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47"/>
+    <row r="15" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="52"/>
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
@@ -3582,8 +3593,8 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
+    <row r="16" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="52"/>
       <c r="B16" s="10" t="s">
         <v>27</v>
       </c>
@@ -3618,8 +3629,8 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
+    <row r="17" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="52"/>
       <c r="B17" s="10" t="s">
         <v>12</v>
       </c>
@@ -3654,8 +3665,8 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="47"/>
+    <row r="18" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="52"/>
       <c r="B18" s="10" t="s">
         <v>28</v>
       </c>
@@ -3690,8 +3701,8 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="47"/>
+    <row r="19" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="52"/>
       <c r="B19" s="10" t="s">
         <v>14</v>
       </c>
@@ -3726,8 +3737,8 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47"/>
+    <row r="20" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="52"/>
       <c r="B20" s="10" t="s">
         <v>25</v>
       </c>
@@ -3762,8 +3773,8 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="47"/>
+    <row r="21" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="52"/>
       <c r="B21" s="10" t="s">
         <v>21</v>
       </c>
@@ -3798,8 +3809,8 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="47"/>
+    <row r="22" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="52"/>
       <c r="B22" s="10" t="s">
         <v>23</v>
       </c>
@@ -3834,8 +3845,8 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="47"/>
+    <row r="23" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="52"/>
       <c r="B23" s="10" t="s">
         <v>24</v>
       </c>
@@ -3870,8 +3881,8 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47"/>
+    <row r="24" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="52"/>
       <c r="B24" s="10" t="s">
         <v>19</v>
       </c>
@@ -3906,8 +3917,8 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
+    <row r="25" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="52"/>
       <c r="B25" s="10" t="s">
         <v>15</v>
       </c>
@@ -3942,8 +3953,8 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="47"/>
+    <row r="26" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="52"/>
       <c r="B26" s="10" t="s">
         <v>18</v>
       </c>
@@ -3978,7 +3989,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="L27" s="27"/>
       <c r="M27" s="27"/>
     </row>
@@ -4007,7 +4018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R27"/>
   <sheetViews>
@@ -4015,133 +4026,133 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17" style="5" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="6" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="2" customWidth="1"/>
-    <col min="8" max="9" width="12.625" style="1" customWidth="1"/>
-    <col min="10" max="13" width="12.625" style="3" customWidth="1"/>
-    <col min="14" max="15" width="12.625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="12.58203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.58203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.58203125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="12.58203125" style="1" customWidth="1"/>
+    <col min="10" max="13" width="12.58203125" style="3" customWidth="1"/>
+    <col min="14" max="15" width="12.58203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="15.5" style="3" customWidth="1"/>
     <col min="17" max="17" width="15.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="12.58203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="48" t="s">
+    <row r="1" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-    </row>
-    <row r="2" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+    </row>
+    <row r="2" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-    </row>
-    <row r="3" spans="1:18" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+    </row>
+    <row r="3" spans="1:18" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="50" t="s">
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="52"/>
-    </row>
-    <row r="4" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43" t="s">
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="47"/>
+    </row>
+    <row r="4" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="43" t="s">
+      <c r="G4" s="49"/>
+      <c r="H4" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43" t="s">
+      <c r="I4" s="44"/>
+      <c r="J4" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43" t="s">
+      <c r="K4" s="44"/>
+      <c r="L4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" s="43"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="44"/>
       <c r="P4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="44" t="s">
+      <c r="Q4" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="45"/>
-    </row>
-    <row r="5" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
+      <c r="R4" s="49"/>
+    </row>
+    <row r="5" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="16" t="s">
         <v>16</v>
       </c>
@@ -4191,7 +4202,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
         <v>33</v>
       </c>
@@ -4263,8 +4274,8 @@
         <v>5994</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
+    <row r="7" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="51" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="18" t="s">
@@ -4335,8 +4346,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
+    <row r="8" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="52"/>
       <c r="B8" s="13" t="s">
         <v>13</v>
       </c>
@@ -4367,8 +4378,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
+    <row r="9" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="52"/>
       <c r="B9" s="10" t="s">
         <v>27</v>
       </c>
@@ -4399,8 +4410,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
+    <row r="10" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="52"/>
       <c r="B10" s="10" t="s">
         <v>12</v>
       </c>
@@ -4433,8 +4444,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
+    <row r="11" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="52"/>
       <c r="B11" s="10" t="s">
         <v>28</v>
       </c>
@@ -4467,8 +4478,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
+    <row r="12" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="52"/>
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -4507,8 +4518,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
+    <row r="13" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="52"/>
       <c r="B13" s="10" t="s">
         <v>25</v>
       </c>
@@ -4541,8 +4552,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
+    <row r="14" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="52"/>
       <c r="B14" s="18" t="s">
         <v>7</v>
       </c>
@@ -4611,8 +4622,8 @@
         <v>5958</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47"/>
+    <row r="15" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="52"/>
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
@@ -4643,8 +4654,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
+    <row r="16" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="52"/>
       <c r="B16" s="10" t="s">
         <v>27</v>
       </c>
@@ -4675,8 +4686,8 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
+    <row r="17" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="52"/>
       <c r="B17" s="10" t="s">
         <v>12</v>
       </c>
@@ -4707,8 +4718,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="47"/>
+    <row r="18" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="52"/>
       <c r="B18" s="10" t="s">
         <v>28</v>
       </c>
@@ -4739,8 +4750,8 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="47"/>
+    <row r="19" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="52"/>
       <c r="B19" s="10" t="s">
         <v>14</v>
       </c>
@@ -4771,8 +4782,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47"/>
+    <row r="20" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="52"/>
       <c r="B20" s="10" t="s">
         <v>25</v>
       </c>
@@ -4803,8 +4814,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="47"/>
+    <row r="21" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="52"/>
       <c r="B21" s="10" t="s">
         <v>21</v>
       </c>
@@ -4835,8 +4846,8 @@
         <v>408</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="47"/>
+    <row r="22" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="52"/>
       <c r="B22" s="10" t="s">
         <v>23</v>
       </c>
@@ -4867,8 +4878,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="47"/>
+    <row r="23" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="52"/>
       <c r="B23" s="10" t="s">
         <v>24</v>
       </c>
@@ -4899,8 +4910,8 @@
         <v>510</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47"/>
+    <row r="24" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="52"/>
       <c r="B24" s="10" t="s">
         <v>19</v>
       </c>
@@ -4931,8 +4942,8 @@
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
+    <row r="25" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="52"/>
       <c r="B25" s="10" t="s">
         <v>15</v>
       </c>
@@ -4963,8 +4974,8 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="47"/>
+    <row r="26" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="52"/>
       <c r="B26" s="10" t="s">
         <v>18</v>
       </c>
@@ -4995,17 +5006,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="L27" s="27"/>
       <c r="M27" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B1:R1"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="N4:O4"/>
     <mergeCell ref="A7:A26"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A3:A5"/>
@@ -5015,6 +5021,11 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B1:R1"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="N4:O4"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.20305556058883667" right="0.14986111223697662" top="0.25777778029441833" bottom="0.16152778267860413" header="3.0833333730697632E-2" footer="0.15333333611488342"/>
@@ -5024,134 +5035,134 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="73" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C14" sqref="C14:R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17" style="5" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="6" customWidth="1"/>
-    <col min="3" max="15" width="12.625" style="21" customWidth="1"/>
+    <col min="3" max="15" width="12.58203125" style="21" customWidth="1"/>
     <col min="16" max="17" width="15.5" style="21" customWidth="1"/>
-    <col min="18" max="18" width="12.625" style="21" customWidth="1"/>
+    <col min="18" max="18" width="12.58203125" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="48" t="s">
+    <row r="1" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-    </row>
-    <row r="2" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+    </row>
+    <row r="2" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-    </row>
-    <row r="3" spans="1:18" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+    </row>
+    <row r="3" spans="1:18" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="50" t="s">
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="52"/>
-    </row>
-    <row r="4" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43" t="s">
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="47"/>
+    </row>
+    <row r="4" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="43" t="s">
+      <c r="G4" s="49"/>
+      <c r="H4" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43" t="s">
+      <c r="I4" s="44"/>
+      <c r="J4" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43" t="s">
+      <c r="K4" s="44"/>
+      <c r="L4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" s="43"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="44"/>
       <c r="P4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="44" t="s">
+      <c r="Q4" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="45"/>
-    </row>
-    <row r="5" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
+      <c r="R4" s="49"/>
+    </row>
+    <row r="5" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="16" t="s">
         <v>16</v>
       </c>
@@ -5201,7 +5212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
         <v>33</v>
       </c>
@@ -5273,8 +5284,8 @@
         <v>3242</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="46" t="s">
+    <row r="7" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="51" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="18" t="s">
@@ -5345,8 +5356,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
+    <row r="8" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="52"/>
       <c r="B8" s="13" t="s">
         <v>13</v>
       </c>
@@ -5373,8 +5384,8 @@
       <c r="Q8" s="12"/>
       <c r="R8" s="14"/>
     </row>
-    <row r="9" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
+    <row r="9" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="52"/>
       <c r="B9" s="10" t="s">
         <v>27</v>
       </c>
@@ -5397,8 +5408,8 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="11"/>
     </row>
-    <row r="10" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
+    <row r="10" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="52"/>
       <c r="B10" s="10" t="s">
         <v>12</v>
       </c>
@@ -5423,8 +5434,8 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="11"/>
     </row>
-    <row r="11" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
+    <row r="11" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="52"/>
       <c r="B11" s="10" t="s">
         <v>28</v>
       </c>
@@ -5449,8 +5460,8 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="11"/>
     </row>
-    <row r="12" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
+    <row r="12" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="52"/>
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -5481,8 +5492,8 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="11"/>
     </row>
-    <row r="13" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
+    <row r="13" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="52"/>
       <c r="B13" s="10" t="s">
         <v>25</v>
       </c>
@@ -5507,8 +5518,8 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="11"/>
     </row>
-    <row r="14" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="47"/>
+    <row r="14" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="52"/>
       <c r="B14" s="18" t="s">
         <v>7</v>
       </c>
@@ -5577,8 +5588,8 @@
         <v>3242</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47"/>
+    <row r="15" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="52"/>
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
@@ -5605,8 +5616,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
+    <row r="16" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="52"/>
       <c r="B16" s="10" t="s">
         <v>27</v>
       </c>
@@ -5633,8 +5644,8 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
+    <row r="17" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="52"/>
       <c r="B17" s="10" t="s">
         <v>12</v>
       </c>
@@ -5661,8 +5672,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="47"/>
+    <row r="18" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="52"/>
       <c r="B18" s="10" t="s">
         <v>28</v>
       </c>
@@ -5689,8 +5700,8 @@
         <v>564</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="47"/>
+    <row r="19" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="52"/>
       <c r="B19" s="10" t="s">
         <v>14</v>
       </c>
@@ -5717,8 +5728,8 @@
         <v>951</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47"/>
+    <row r="20" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="52"/>
       <c r="B20" s="10" t="s">
         <v>25</v>
       </c>
@@ -5745,8 +5756,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="47"/>
+    <row r="21" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="52"/>
       <c r="B21" s="10" t="s">
         <v>21</v>
       </c>
@@ -5773,8 +5784,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="47"/>
+    <row r="22" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="52"/>
       <c r="B22" s="10" t="s">
         <v>23</v>
       </c>
@@ -5801,8 +5812,8 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="47"/>
+    <row r="23" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="52"/>
       <c r="B23" s="10" t="s">
         <v>24</v>
       </c>
@@ -5829,8 +5840,8 @@
         <v>747</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47"/>
+    <row r="24" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="52"/>
       <c r="B24" s="10" t="s">
         <v>19</v>
       </c>
@@ -5861,8 +5872,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
+    <row r="25" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="52"/>
       <c r="B25" s="10" t="s">
         <v>15</v>
       </c>
@@ -5893,8 +5904,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="47"/>
+    <row r="26" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="52"/>
       <c r="B26" s="10" t="s">
         <v>18</v>
       </c>
@@ -5925,7 +5936,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="L27" s="27"/>
       <c r="M27" s="27"/>
     </row>
@@ -5954,134 +5965,134 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="73" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17" style="5" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="6" customWidth="1"/>
-    <col min="3" max="15" width="12.625" style="21" customWidth="1"/>
+    <col min="3" max="15" width="12.58203125" style="21" customWidth="1"/>
     <col min="16" max="17" width="15.5" style="21" customWidth="1"/>
-    <col min="18" max="18" width="12.625" style="21" customWidth="1"/>
+    <col min="18" max="18" width="12.58203125" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="48" t="s">
+    <row r="1" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-    </row>
-    <row r="2" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+    </row>
+    <row r="2" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-    </row>
-    <row r="3" spans="1:18" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+    </row>
+    <row r="3" spans="1:18" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="50" t="s">
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="52"/>
-    </row>
-    <row r="4" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43" t="s">
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="47"/>
+    </row>
+    <row r="4" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="43" t="s">
+      <c r="G4" s="49"/>
+      <c r="H4" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43" t="s">
+      <c r="I4" s="44"/>
+      <c r="J4" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43" t="s">
+      <c r="K4" s="44"/>
+      <c r="L4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" s="43"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="44"/>
       <c r="P4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="44" t="s">
+      <c r="Q4" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="45"/>
-    </row>
-    <row r="5" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
+      <c r="R4" s="49"/>
+    </row>
+    <row r="5" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="16" t="s">
         <v>16</v>
       </c>
@@ -6131,7 +6142,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
         <v>33</v>
       </c>
@@ -6203,8 +6214,8 @@
         <v>2621</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="46" t="s">
+    <row r="7" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="51" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="18" t="s">
@@ -6275,8 +6286,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
+    <row r="8" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="52"/>
       <c r="B8" s="13" t="s">
         <v>13</v>
       </c>
@@ -6303,8 +6314,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
+    <row r="9" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="52"/>
       <c r="B9" s="10" t="s">
         <v>27</v>
       </c>
@@ -6327,8 +6338,8 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="11"/>
     </row>
-    <row r="10" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
+    <row r="10" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="52"/>
       <c r="B10" s="10" t="s">
         <v>12</v>
       </c>
@@ -6353,8 +6364,8 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="11"/>
     </row>
-    <row r="11" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
+    <row r="11" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="52"/>
       <c r="B11" s="10" t="s">
         <v>28</v>
       </c>
@@ -6383,8 +6394,8 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="11"/>
     </row>
-    <row r="12" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
+    <row r="12" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="52"/>
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -6419,8 +6430,8 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="11"/>
     </row>
-    <row r="13" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
+    <row r="13" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="52"/>
       <c r="B13" s="10" t="s">
         <v>25</v>
       </c>
@@ -6445,8 +6456,8 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="11"/>
     </row>
-    <row r="14" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="47"/>
+    <row r="14" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="52"/>
       <c r="B14" s="18" t="s">
         <v>7</v>
       </c>
@@ -6515,8 +6526,8 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47"/>
+    <row r="15" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="52"/>
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
@@ -6547,8 +6558,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
+    <row r="16" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="52"/>
       <c r="B16" s="10" t="s">
         <v>27</v>
       </c>
@@ -6575,8 +6586,8 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
+    <row r="17" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="52"/>
       <c r="B17" s="10" t="s">
         <v>12</v>
       </c>
@@ -6603,8 +6614,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="47"/>
+    <row r="18" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="52"/>
       <c r="B18" s="10" t="s">
         <v>28</v>
       </c>
@@ -6631,8 +6642,8 @@
         <v>372</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="47"/>
+    <row r="19" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="52"/>
       <c r="B19" s="10" t="s">
         <v>14</v>
       </c>
@@ -6663,8 +6674,8 @@
         <v>297</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47"/>
+    <row r="20" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="52"/>
       <c r="B20" s="10" t="s">
         <v>25</v>
       </c>
@@ -6691,8 +6702,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="47"/>
+    <row r="21" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="52"/>
       <c r="B21" s="10" t="s">
         <v>21</v>
       </c>
@@ -6723,8 +6734,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="47"/>
+    <row r="22" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="52"/>
       <c r="B22" s="10" t="s">
         <v>23</v>
       </c>
@@ -6755,8 +6766,8 @@
         <v>290</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="47"/>
+    <row r="23" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="52"/>
       <c r="B23" s="10" t="s">
         <v>24</v>
       </c>
@@ -6783,8 +6794,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47"/>
+    <row r="24" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="52"/>
       <c r="B24" s="10" t="s">
         <v>19</v>
       </c>
@@ -6815,8 +6826,8 @@
         <v>278</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
+    <row r="25" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="52"/>
       <c r="B25" s="10" t="s">
         <v>15</v>
       </c>
@@ -6847,8 +6858,8 @@
         <v>308</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="47"/>
+    <row r="26" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="52"/>
       <c r="B26" s="10" t="s">
         <v>18</v>
       </c>
@@ -6879,7 +6890,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="L27" s="27"/>
       <c r="M27" s="27"/>
     </row>
@@ -6908,134 +6919,134 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="73" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17" style="5" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="6" customWidth="1"/>
-    <col min="3" max="15" width="12.625" style="21" customWidth="1"/>
+    <col min="3" max="15" width="12.58203125" style="21" customWidth="1"/>
     <col min="16" max="17" width="15.5" style="21" customWidth="1"/>
-    <col min="18" max="18" width="12.625" style="21" customWidth="1"/>
+    <col min="18" max="18" width="12.58203125" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="48" t="s">
+    <row r="1" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-    </row>
-    <row r="2" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+    </row>
+    <row r="2" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-    </row>
-    <row r="3" spans="1:18" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+    </row>
+    <row r="3" spans="1:18" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="50" t="s">
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="52"/>
-    </row>
-    <row r="4" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43" t="s">
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="47"/>
+    </row>
+    <row r="4" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="43" t="s">
+      <c r="G4" s="49"/>
+      <c r="H4" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43" t="s">
+      <c r="I4" s="44"/>
+      <c r="J4" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43" t="s">
+      <c r="K4" s="44"/>
+      <c r="L4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" s="43"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="44"/>
       <c r="P4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="44" t="s">
+      <c r="Q4" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="45"/>
-    </row>
-    <row r="5" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
+      <c r="R4" s="49"/>
+    </row>
+    <row r="5" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="16" t="s">
         <v>16</v>
       </c>
@@ -7085,7 +7096,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
         <v>33</v>
       </c>
@@ -7157,8 +7168,8 @@
         <v>5414</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="46" t="s">
+    <row r="7" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="51" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="18" t="s">
@@ -7229,8 +7240,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
+    <row r="8" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="52"/>
       <c r="B8" s="13" t="s">
         <v>13</v>
       </c>
@@ -7253,8 +7264,8 @@
       <c r="Q8" s="12"/>
       <c r="R8" s="14"/>
     </row>
-    <row r="9" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
+    <row r="9" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="52"/>
       <c r="B9" s="10" t="s">
         <v>27</v>
       </c>
@@ -7277,8 +7288,8 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="11"/>
     </row>
-    <row r="10" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
+    <row r="10" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="52"/>
       <c r="B10" s="10" t="s">
         <v>12</v>
       </c>
@@ -7303,8 +7314,8 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="11"/>
     </row>
-    <row r="11" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
+    <row r="11" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="52"/>
       <c r="B11" s="10" t="s">
         <v>28</v>
       </c>
@@ -7329,8 +7340,8 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="11"/>
     </row>
-    <row r="12" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
+    <row r="12" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="52"/>
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -7361,8 +7372,8 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="11"/>
     </row>
-    <row r="13" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
+    <row r="13" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="52"/>
       <c r="B13" s="10" t="s">
         <v>25</v>
       </c>
@@ -7387,8 +7398,8 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="11"/>
     </row>
-    <row r="14" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="47"/>
+    <row r="14" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="52"/>
       <c r="B14" s="18" t="s">
         <v>7</v>
       </c>
@@ -7457,8 +7468,8 @@
         <v>5414</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47"/>
+    <row r="15" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="52"/>
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
@@ -7485,8 +7496,8 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
+    <row r="16" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="52"/>
       <c r="B16" s="10" t="s">
         <v>27</v>
       </c>
@@ -7513,8 +7524,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
+    <row r="17" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="52"/>
       <c r="B17" s="10" t="s">
         <v>12</v>
       </c>
@@ -7541,8 +7552,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="47"/>
+    <row r="18" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="52"/>
       <c r="B18" s="10" t="s">
         <v>28</v>
       </c>
@@ -7569,8 +7580,8 @@
         <v>706</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="47"/>
+    <row r="19" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="52"/>
       <c r="B19" s="10" t="s">
         <v>14</v>
       </c>
@@ -7597,8 +7608,8 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47"/>
+    <row r="20" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="52"/>
       <c r="B20" s="10" t="s">
         <v>25</v>
       </c>
@@ -7625,8 +7636,8 @@
         <v>301</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="47"/>
+    <row r="21" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="52"/>
       <c r="B21" s="10" t="s">
         <v>21</v>
       </c>
@@ -7653,8 +7664,8 @@
         <v>367</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="47"/>
+    <row r="22" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="52"/>
       <c r="B22" s="10" t="s">
         <v>23</v>
       </c>
@@ -7681,8 +7692,8 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="47"/>
+    <row r="23" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="52"/>
       <c r="B23" s="10" t="s">
         <v>24</v>
       </c>
@@ -7709,8 +7720,8 @@
         <v>568</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47"/>
+    <row r="24" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="52"/>
       <c r="B24" s="10" t="s">
         <v>19</v>
       </c>
@@ -7737,8 +7748,8 @@
         <v>699</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
+    <row r="25" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="52"/>
       <c r="B25" s="10" t="s">
         <v>15</v>
       </c>
@@ -7765,8 +7776,8 @@
         <v>578</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="47"/>
+    <row r="26" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="52"/>
       <c r="B26" s="10" t="s">
         <v>18</v>
       </c>
@@ -7793,7 +7804,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="L27" s="27"/>
       <c r="M27" s="27"/>
     </row>
@@ -7822,134 +7833,134 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="73" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17" style="5" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="6" customWidth="1"/>
-    <col min="3" max="15" width="12.625" style="21" customWidth="1"/>
+    <col min="3" max="15" width="12.58203125" style="21" customWidth="1"/>
     <col min="16" max="17" width="15.5" style="21" customWidth="1"/>
-    <col min="18" max="18" width="12.625" style="21" customWidth="1"/>
+    <col min="18" max="18" width="12.58203125" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="48" t="s">
+    <row r="1" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-    </row>
-    <row r="2" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+    </row>
+    <row r="2" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-    </row>
-    <row r="3" spans="1:18" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+    </row>
+    <row r="3" spans="1:18" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="50" t="s">
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="52"/>
-    </row>
-    <row r="4" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43" t="s">
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="47"/>
+    </row>
+    <row r="4" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="43" t="s">
+      <c r="G4" s="49"/>
+      <c r="H4" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43" t="s">
+      <c r="I4" s="44"/>
+      <c r="J4" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43" t="s">
+      <c r="K4" s="44"/>
+      <c r="L4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" s="43"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="44"/>
       <c r="P4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="44" t="s">
+      <c r="Q4" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="45"/>
-    </row>
-    <row r="5" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
+      <c r="R4" s="49"/>
+    </row>
+    <row r="5" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="16" t="s">
         <v>16</v>
       </c>
@@ -7999,7 +8010,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
         <v>33</v>
       </c>
@@ -8071,8 +8082,8 @@
         <v>8579</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="46" t="s">
+    <row r="7" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="51" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="18" t="s">
@@ -8143,8 +8154,8 @@
         <v>476</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
+    <row r="8" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="52"/>
       <c r="B8" s="13" t="s">
         <v>13</v>
       </c>
@@ -8172,8 +8183,8 @@
         <v>386</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
+    <row r="9" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="52"/>
       <c r="B9" s="10" t="s">
         <v>27</v>
       </c>
@@ -8200,8 +8211,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
+    <row r="10" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="52"/>
       <c r="B10" s="10" t="s">
         <v>12</v>
       </c>
@@ -8232,8 +8243,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
+    <row r="11" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="52"/>
       <c r="B11" s="10" t="s">
         <v>28</v>
       </c>
@@ -8264,8 +8275,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
+    <row r="12" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="52"/>
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -8300,8 +8311,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
+    <row r="13" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="52"/>
       <c r="B13" s="10" t="s">
         <v>25</v>
       </c>
@@ -8332,8 +8343,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="47"/>
+    <row r="14" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="52"/>
       <c r="B14" s="18" t="s">
         <v>7</v>
       </c>
@@ -8402,8 +8413,8 @@
         <v>8103</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47"/>
+    <row r="15" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="52"/>
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
@@ -8432,8 +8443,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
+    <row r="16" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="52"/>
       <c r="B16" s="10" t="s">
         <v>27</v>
       </c>
@@ -8462,8 +8473,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
+    <row r="17" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="52"/>
       <c r="B17" s="10" t="s">
         <v>12</v>
       </c>
@@ -8492,8 +8503,8 @@
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="47"/>
+    <row r="18" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="52"/>
       <c r="B18" s="10" t="s">
         <v>28</v>
       </c>
@@ -8522,8 +8533,8 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="47"/>
+    <row r="19" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="52"/>
       <c r="B19" s="10" t="s">
         <v>14</v>
       </c>
@@ -8552,8 +8563,8 @@
         <v>710</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47"/>
+    <row r="20" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="52"/>
       <c r="B20" s="10" t="s">
         <v>25</v>
       </c>
@@ -8582,8 +8593,8 @@
         <v>410</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="47"/>
+    <row r="21" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="52"/>
       <c r="B21" s="10" t="s">
         <v>21</v>
       </c>
@@ -8612,8 +8623,8 @@
         <v>297</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="47"/>
+    <row r="22" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="52"/>
       <c r="B22" s="10" t="s">
         <v>23</v>
       </c>
@@ -8642,8 +8653,8 @@
         <v>695</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="47"/>
+    <row r="23" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="52"/>
       <c r="B23" s="10" t="s">
         <v>24</v>
       </c>
@@ -8672,8 +8683,8 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47"/>
+    <row r="24" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="52"/>
       <c r="B24" s="10" t="s">
         <v>19</v>
       </c>
@@ -8702,8 +8713,8 @@
         <v>365</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
+    <row r="25" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="52"/>
       <c r="B25" s="10" t="s">
         <v>15</v>
       </c>
@@ -8732,8 +8743,8 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="47"/>
+    <row r="26" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="52"/>
       <c r="B26" s="10" t="s">
         <v>18</v>
       </c>
@@ -8762,7 +8773,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="L27" s="27"/>
       <c r="M27" s="27"/>
     </row>
@@ -8791,134 +8802,134 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="73" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17" style="5" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="6" customWidth="1"/>
-    <col min="3" max="15" width="12.625" style="21" customWidth="1"/>
+    <col min="3" max="15" width="12.58203125" style="21" customWidth="1"/>
     <col min="16" max="17" width="15.5" style="21" customWidth="1"/>
-    <col min="18" max="18" width="12.625" style="21" customWidth="1"/>
+    <col min="18" max="18" width="12.58203125" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="48" t="s">
+    <row r="1" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-    </row>
-    <row r="2" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+    </row>
+    <row r="2" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-    </row>
-    <row r="3" spans="1:18" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+    </row>
+    <row r="3" spans="1:18" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="50" t="s">
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="52"/>
-    </row>
-    <row r="4" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43" t="s">
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="47"/>
+    </row>
+    <row r="4" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="43" t="s">
+      <c r="G4" s="49"/>
+      <c r="H4" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43" t="s">
+      <c r="I4" s="44"/>
+      <c r="J4" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43" t="s">
+      <c r="K4" s="44"/>
+      <c r="L4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" s="43"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="44"/>
       <c r="P4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="44" t="s">
+      <c r="Q4" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="45"/>
-    </row>
-    <row r="5" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
+      <c r="R4" s="49"/>
+    </row>
+    <row r="5" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="16" t="s">
         <v>16</v>
       </c>
@@ -8968,7 +8979,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
         <v>33</v>
       </c>
@@ -9040,8 +9051,8 @@
         <v>105656</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="46" t="s">
+    <row r="7" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="51" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="30" t="s">
@@ -9112,8 +9123,8 @@
         <v>974</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
+    <row r="8" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="52"/>
       <c r="B8" s="32" t="s">
         <v>13</v>
       </c>
@@ -9150,8 +9161,8 @@
         <v>971</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
+    <row r="9" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="52"/>
       <c r="B9" s="33" t="s">
         <v>27</v>
       </c>
@@ -9192,8 +9203,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
+    <row r="10" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="52"/>
       <c r="B10" s="33" t="s">
         <v>12</v>
       </c>
@@ -9230,8 +9241,8 @@
       <c r="Q10" s="34"/>
       <c r="R10" s="34"/>
     </row>
-    <row r="11" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
+    <row r="11" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="52"/>
       <c r="B11" s="33" t="s">
         <v>28</v>
       </c>
@@ -9272,8 +9283,8 @@
       <c r="Q11" s="34"/>
       <c r="R11" s="34"/>
     </row>
-    <row r="12" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
+    <row r="12" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="52"/>
       <c r="B12" s="33" t="s">
         <v>14</v>
       </c>
@@ -9322,8 +9333,8 @@
       <c r="Q12" s="34"/>
       <c r="R12" s="34"/>
     </row>
-    <row r="13" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
+    <row r="13" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="52"/>
       <c r="B13" s="33" t="s">
         <v>25</v>
       </c>
@@ -9368,8 +9379,8 @@
       <c r="Q13" s="34"/>
       <c r="R13" s="34"/>
     </row>
-    <row r="14" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="47"/>
+    <row r="14" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="52"/>
       <c r="B14" s="30" t="s">
         <v>7</v>
       </c>
@@ -9438,8 +9449,8 @@
         <v>104682</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47"/>
+    <row r="15" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="52"/>
       <c r="B15" s="32" t="s">
         <v>13</v>
       </c>
@@ -9476,8 +9487,8 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
+    <row r="16" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="52"/>
       <c r="B16" s="33" t="s">
         <v>27</v>
       </c>
@@ -9514,8 +9525,8 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
+    <row r="17" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="52"/>
       <c r="B17" s="33" t="s">
         <v>12</v>
       </c>
@@ -9552,8 +9563,8 @@
         <v>4254</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="47"/>
+    <row r="18" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="52"/>
       <c r="B18" s="33" t="s">
         <v>28</v>
       </c>
@@ -9590,8 +9601,8 @@
         <v>6305</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="47"/>
+    <row r="19" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="52"/>
       <c r="B19" s="33" t="s">
         <v>14</v>
       </c>
@@ -9628,8 +9639,8 @@
         <v>5350</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47"/>
+    <row r="20" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="52"/>
       <c r="B20" s="33" t="s">
         <v>25</v>
       </c>
@@ -9666,8 +9677,8 @@
         <v>5778</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="47"/>
+    <row r="21" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="52"/>
       <c r="B21" s="33" t="s">
         <v>21</v>
       </c>
@@ -9708,8 +9719,8 @@
         <v>6127</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="47"/>
+    <row r="22" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="52"/>
       <c r="B22" s="33" t="s">
         <v>23</v>
       </c>
@@ -9750,8 +9761,8 @@
         <v>8211</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="47"/>
+    <row r="23" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="52"/>
       <c r="B23" s="33" t="s">
         <v>24</v>
       </c>
@@ -9788,8 +9799,8 @@
         <v>8244</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47"/>
+    <row r="24" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="52"/>
       <c r="B24" s="33" t="s">
         <v>19</v>
       </c>
@@ -9826,8 +9837,8 @@
         <v>5257</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
+    <row r="25" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="52"/>
       <c r="B25" s="33" t="s">
         <v>15</v>
       </c>
@@ -9868,8 +9879,8 @@
         <v>45327</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="47"/>
+    <row r="26" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="52"/>
       <c r="B26" s="33" t="s">
         <v>18</v>
       </c>
@@ -9910,7 +9921,7 @@
         <v>4452</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="L27" s="27"/>
       <c r="M27" s="27"/>
     </row>
@@ -9939,134 +9950,134 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="73" zoomScaleNormal="73" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17" style="5" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="6" customWidth="1"/>
-    <col min="3" max="15" width="12.625" style="21" customWidth="1"/>
+    <col min="3" max="15" width="12.58203125" style="21" customWidth="1"/>
     <col min="16" max="17" width="15.5" style="21" customWidth="1"/>
-    <col min="18" max="18" width="12.625" style="21" customWidth="1"/>
+    <col min="18" max="18" width="12.58203125" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="48" t="s">
+    <row r="1" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-    </row>
-    <row r="2" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+    </row>
+    <row r="2" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-    </row>
-    <row r="3" spans="1:18" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+    </row>
+    <row r="3" spans="1:18" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="50" t="s">
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="52"/>
-    </row>
-    <row r="4" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43" t="s">
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="47"/>
+    </row>
+    <row r="4" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="43" t="s">
+      <c r="G4" s="49"/>
+      <c r="H4" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43" t="s">
+      <c r="I4" s="44"/>
+      <c r="J4" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43" t="s">
+      <c r="K4" s="44"/>
+      <c r="L4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" s="43"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="44"/>
       <c r="P4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="44" t="s">
+      <c r="Q4" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="45"/>
-    </row>
-    <row r="5" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
+      <c r="R4" s="49"/>
+    </row>
+    <row r="5" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="16" t="s">
         <v>16</v>
       </c>
@@ -10116,7 +10127,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
         <v>33</v>
       </c>
@@ -10188,8 +10199,8 @@
         <v>23452</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="46" t="s">
+    <row r="7" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="51" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="18" t="s">
@@ -10260,8 +10271,8 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
+    <row r="8" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="52"/>
       <c r="B8" s="13" t="s">
         <v>13</v>
       </c>
@@ -10296,8 +10307,8 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
+    <row r="9" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="52"/>
       <c r="B9" s="10" t="s">
         <v>27</v>
       </c>
@@ -10332,8 +10343,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
+    <row r="10" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="52"/>
       <c r="B10" s="10" t="s">
         <v>12</v>
       </c>
@@ -10370,8 +10381,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
+    <row r="11" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="52"/>
       <c r="B11" s="10" t="s">
         <v>28</v>
       </c>
@@ -10408,8 +10419,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
+    <row r="12" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="52"/>
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -10453,8 +10464,8 @@
         <v>409</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
+    <row r="13" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="52"/>
       <c r="B13" s="10" t="s">
         <v>25</v>
       </c>
@@ -10493,8 +10504,8 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="47"/>
+    <row r="14" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="52"/>
       <c r="B14" s="18" t="s">
         <v>7</v>
       </c>
@@ -10563,8 +10574,8 @@
         <v>20529</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47"/>
+    <row r="15" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="52"/>
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
@@ -10599,8 +10610,8 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
+    <row r="16" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="52"/>
       <c r="B16" s="10" t="s">
         <v>27</v>
       </c>
@@ -10635,8 +10646,8 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
+    <row r="17" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="52"/>
       <c r="B17" s="10" t="s">
         <v>12</v>
       </c>
@@ -10671,8 +10682,8 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="47"/>
+    <row r="18" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="52"/>
       <c r="B18" s="10" t="s">
         <v>28</v>
       </c>
@@ -10707,8 +10718,8 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="47"/>
+    <row r="19" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="52"/>
       <c r="B19" s="10" t="s">
         <v>14</v>
       </c>
@@ -10743,8 +10754,8 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47"/>
+    <row r="20" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="52"/>
       <c r="B20" s="10" t="s">
         <v>25</v>
       </c>
@@ -10779,8 +10790,8 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="47"/>
+    <row r="21" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="52"/>
       <c r="B21" s="10" t="s">
         <v>21</v>
       </c>
@@ -10815,8 +10826,8 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="47"/>
+    <row r="22" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="52"/>
       <c r="B22" s="10" t="s">
         <v>23</v>
       </c>
@@ -10851,8 +10862,8 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="47"/>
+    <row r="23" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="52"/>
       <c r="B23" s="10" t="s">
         <v>24</v>
       </c>
@@ -10887,8 +10898,8 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47"/>
+    <row r="24" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="52"/>
       <c r="B24" s="10" t="s">
         <v>19</v>
       </c>
@@ -10923,8 +10934,8 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
+    <row r="25" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="52"/>
       <c r="B25" s="10" t="s">
         <v>15</v>
       </c>
@@ -10959,8 +10970,8 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="47"/>
+    <row r="26" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="52"/>
       <c r="B26" s="10" t="s">
         <v>18</v>
       </c>
@@ -10995,7 +11006,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="L27" s="27"/>
       <c r="M27" s="27"/>
     </row>
@@ -11024,134 +11035,134 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="73" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17" style="5" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="6" customWidth="1"/>
-    <col min="3" max="15" width="12.625" style="21" customWidth="1"/>
+    <col min="3" max="15" width="12.58203125" style="21" customWidth="1"/>
     <col min="16" max="17" width="15.5" style="21" customWidth="1"/>
-    <col min="18" max="18" width="12.625" style="21" customWidth="1"/>
+    <col min="18" max="18" width="12.58203125" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="48" t="s">
+    <row r="1" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-    </row>
-    <row r="2" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+    </row>
+    <row r="2" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-    </row>
-    <row r="3" spans="1:18" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+    </row>
+    <row r="3" spans="1:18" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="50" t="s">
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="52"/>
-    </row>
-    <row r="4" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43" t="s">
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="47"/>
+    </row>
+    <row r="4" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="43" t="s">
+      <c r="G4" s="49"/>
+      <c r="H4" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43" t="s">
+      <c r="I4" s="44"/>
+      <c r="J4" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43" t="s">
+      <c r="K4" s="44"/>
+      <c r="L4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" s="43"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="44"/>
       <c r="P4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="44" t="s">
+      <c r="Q4" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="45"/>
-    </row>
-    <row r="5" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
+      <c r="R4" s="49"/>
+    </row>
+    <row r="5" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="16" t="s">
         <v>16</v>
       </c>
@@ -11201,7 +11212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
         <v>33</v>
       </c>
@@ -11273,8 +11284,8 @@
         <v>10188</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="46" t="s">
+    <row r="7" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="51" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="18" t="s">
@@ -11345,8 +11356,8 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
+    <row r="8" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="52"/>
       <c r="B8" s="13" t="s">
         <v>13</v>
       </c>
@@ -11377,8 +11388,8 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
+    <row r="9" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="52"/>
       <c r="B9" s="10" t="s">
         <v>27</v>
       </c>
@@ -11409,8 +11420,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
+    <row r="10" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="52"/>
       <c r="B10" s="10" t="s">
         <v>12</v>
       </c>
@@ -11443,8 +11454,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
+    <row r="11" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="52"/>
       <c r="B11" s="10" t="s">
         <v>28</v>
       </c>
@@ -11477,8 +11488,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
+    <row r="12" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="52"/>
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -11517,8 +11528,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
+    <row r="13" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="52"/>
       <c r="B13" s="10" t="s">
         <v>25</v>
       </c>
@@ -11551,8 +11562,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="47"/>
+    <row r="14" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="52"/>
       <c r="B14" s="18" t="s">
         <v>7</v>
       </c>
@@ -11621,8 +11632,8 @@
         <v>9072</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47"/>
+    <row r="15" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="52"/>
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
@@ -11653,8 +11664,8 @@
         <v>484</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
+    <row r="16" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="52"/>
       <c r="B16" s="10" t="s">
         <v>27</v>
       </c>
@@ -11685,8 +11696,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
+    <row r="17" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="52"/>
       <c r="B17" s="10" t="s">
         <v>12</v>
       </c>
@@ -11717,8 +11728,8 @@
         <v>676</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="47"/>
+    <row r="18" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="52"/>
       <c r="B18" s="10" t="s">
         <v>28</v>
       </c>
@@ -11749,8 +11760,8 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="47"/>
+    <row r="19" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="52"/>
       <c r="B19" s="10" t="s">
         <v>14</v>
       </c>
@@ -11781,8 +11792,8 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47"/>
+    <row r="20" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="52"/>
       <c r="B20" s="10" t="s">
         <v>25</v>
       </c>
@@ -11813,8 +11824,8 @@
         <v>720</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="47"/>
+    <row r="21" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="52"/>
       <c r="B21" s="10" t="s">
         <v>21</v>
       </c>
@@ -11845,8 +11856,8 @@
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="47"/>
+    <row r="22" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="52"/>
       <c r="B22" s="10" t="s">
         <v>23</v>
       </c>
@@ -11877,8 +11888,8 @@
         <v>925</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="47"/>
+    <row r="23" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="52"/>
       <c r="B23" s="10" t="s">
         <v>24</v>
       </c>
@@ -11909,8 +11920,8 @@
         <v>502</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47"/>
+    <row r="24" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="52"/>
       <c r="B24" s="10" t="s">
         <v>19</v>
       </c>
@@ -11941,8 +11952,8 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
+    <row r="25" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="52"/>
       <c r="B25" s="10" t="s">
         <v>15</v>
       </c>
@@ -11973,8 +11984,8 @@
         <v>900</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="47"/>
+    <row r="26" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="52"/>
       <c r="B26" s="10" t="s">
         <v>18</v>
       </c>
@@ -12005,7 +12016,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="L27" s="27"/>
       <c r="M27" s="27"/>
     </row>
